--- a/src/test/java/gbench/sandbox/weihai/data/devops_data.xlsx
+++ b/src/test/java/gbench/sandbox/weihai/data/devops_data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF476CE-8A09-48BF-960C-E5EA29F6EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="1" r:id="rId1"/>
@@ -18,57 +17,38 @@
     <sheet name="事项管理" sheetId="8" r:id="rId8"/>
     <sheet name="UAT提测申请" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="341">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>系统名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统供应商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1#系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1#SYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1#SYS-PDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ADMIN001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2#系统</t>
@@ -224,36 +204,28 @@
     <t>供应商名称</t>
   </si>
   <si>
+    <t>1#项目</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>PROJ001</t>
+  </si>
+  <si>
+    <t>研发项目</t>
+  </si>
+  <si>
+    <t>PROJ001_PROCESS_001</t>
+  </si>
+  <si>
+    <t>运行中</t>
+  </si>
+  <si>
+    <t>{email,mobile,name:cs_supplier1,account,role}</t>
+  </si>
+  <si>
     <t>cs_厂商1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{email,mobile,name:cs_supplier1,account,role}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJ001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJ001_PROCESS_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2#项目</t>
@@ -466,6 +438,12 @@
     <t>cs_厂商15</t>
   </si>
   <si>
+    <t>业务单标题</t>
+  </si>
+  <si>
+    <t>业务需求主办系统</t>
+  </si>
+  <si>
     <t>业务需求主办项目</t>
   </si>
   <si>
@@ -481,28 +459,19 @@
     <t>需求分析书名书路径</t>
   </si>
   <si>
-    <t>业务单标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务需求主办系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求评审01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A01系统，A02系统，A03系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req001.json</t>
   </si>
   <si>
     <t>需求评审02</t>
@@ -511,91 +480,87 @@
     <t>A01系统，A02系统，A04系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req002.json</t>
+  </si>
+  <si>
     <t>需求评审03</t>
   </si>
   <si>
     <t>A01系统，A02系统，A05系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req003.json</t>
+  </si>
+  <si>
     <t>需求评审04</t>
   </si>
   <si>
     <t>A01系统，A02系统，A06系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req004.json</t>
+  </si>
+  <si>
     <t>需求评审05</t>
   </si>
   <si>
     <t>A01系统，A02系统，A07系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req005.json</t>
+  </si>
+  <si>
     <t>需求评审06</t>
   </si>
   <si>
     <t>A01系统，A02系统，A08系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req006.json</t>
+  </si>
+  <si>
     <t>需求评审07</t>
   </si>
   <si>
     <t>A01系统，A02系统，A09系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req007.json</t>
+  </si>
+  <si>
     <t>需求评审08</t>
   </si>
   <si>
     <t>A01系统，A02系统，A10系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req008.json</t>
+  </si>
+  <si>
     <t>需求评审09</t>
   </si>
   <si>
     <t>A01系统，A02系统，A11系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req009.json</t>
+  </si>
+  <si>
     <t>需求评审10</t>
   </si>
   <si>
     <t>A01系统，A02系统，A12系统</t>
   </si>
   <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req010.json</t>
+  </si>
+  <si>
     <t>需求评审11</t>
   </si>
   <si>
     <t>A01系统，A02系统，A13系统</t>
   </si>
   <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req001.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req002.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req003.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req004.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req005.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req006.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req007.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req008.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req009.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req010.json</t>
-  </si>
-  <si>
     <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req011.json</t>
   </si>
   <si>
@@ -611,76 +576,69 @@
     <t>审批结果</t>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REQ001,REQ002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(req001,PASS),(req002,FAILURE)</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>REQ001,REQ003</t>
   </si>
   <si>
+    <t>(req001,PASS),(req003,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ004</t>
   </si>
   <si>
+    <t>(req001,PASS),(req004,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ005</t>
   </si>
   <si>
+    <t>(req001,PASS),(req005,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ006</t>
   </si>
   <si>
+    <t>(req001,PASS),(req006,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ007</t>
   </si>
   <si>
+    <t>(req001,PASS),(req007,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ008</t>
   </si>
   <si>
+    <t>(req001,PASS),(req008,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ009</t>
   </si>
   <si>
+    <t>(req001,PASS),(req009,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ010</t>
   </si>
   <si>
+    <t>(req001,PASS),(req010,FAILURE)</t>
+  </si>
+  <si>
     <t>REQ001,REQ011</t>
   </si>
   <si>
-    <t>(req001,PASS),(req002,FAILURE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(req001,PASS),(req003,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req004,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req005,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req006,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req007,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req008,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req009,FAILURE)</t>
-  </si>
-  <si>
-    <t>(req001,PASS),(req010,FAILURE)</t>
-  </si>
-  <si>
     <t>(req001,PASS),(req011,FAILURE)</t>
   </si>
   <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>准生产部署通知</t>
   </si>
   <si>
@@ -688,52 +646,50 @@
   </si>
   <si>
     <t>APPROVED_MSG_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_RES_MSG_0001</t>
   </si>
   <si>
     <t>APPROVED_MSG_0002</t>
   </si>
   <si>
+    <t>PRODUCT_RES_MSG_0002</t>
+  </si>
+  <si>
     <t>APPROVED_MSG_0003</t>
   </si>
   <si>
+    <t>PRODUCT_RES_MSG_0003</t>
+  </si>
+  <si>
     <t>APPROVED_MSG_0004</t>
   </si>
   <si>
+    <t>PRODUCT_RES_MSG_0004</t>
+  </si>
+  <si>
     <t>APPROVED_MSG_0005</t>
   </si>
   <si>
+    <t>PRODUCT_RES_MSG_0005</t>
+  </si>
+  <si>
     <t>APPROVED_MSG_0006</t>
   </si>
   <si>
+    <t>PRODUCT_RES_MSG_0006</t>
+  </si>
+  <si>
     <t>APPROVED_MSG_0007</t>
   </si>
   <si>
+    <t>PRODUCT_RES_MSG_0007</t>
+  </si>
+  <si>
     <t>APPROVED_MSG_0008</t>
   </si>
   <si>
-    <t>PRODUCT_RES_MSG_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_RES_MSG_0002</t>
-  </si>
-  <si>
-    <t>PRODUCT_RES_MSG_0003</t>
-  </si>
-  <si>
-    <t>PRODUCT_RES_MSG_0004</t>
-  </si>
-  <si>
-    <t>PRODUCT_RES_MSG_0005</t>
-  </si>
-  <si>
-    <t>PRODUCT_RES_MSG_0006</t>
-  </si>
-  <si>
-    <t>PRODUCT_RES_MSG_0007</t>
-  </si>
-  <si>
     <t>PRODUCT_RES_MSG_0008</t>
   </si>
   <si>
@@ -768,112 +724,107 @@
   </si>
   <si>
     <t>DEFECT_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张001</t>
+  </si>
+  <si>
+    <t>REQ001</t>
+  </si>
+  <si>
+    <t>算法错误</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json</t>
   </si>
   <si>
     <t>DEFECT_002</t>
   </si>
   <si>
+    <t>张002</t>
+  </si>
+  <si>
+    <t>REQ002</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect002.json</t>
+  </si>
+  <si>
     <t>DEFECT_003</t>
   </si>
   <si>
+    <t>张003</t>
+  </si>
+  <si>
+    <t>REQ003</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect003.json</t>
+  </si>
+  <si>
     <t>DEFECT_004</t>
   </si>
   <si>
+    <t>张004</t>
+  </si>
+  <si>
+    <t>REQ004</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect004.json</t>
+  </si>
+  <si>
     <t>DEFECT_005</t>
   </si>
   <si>
+    <t>张005</t>
+  </si>
+  <si>
+    <t>REQ005</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect005.json</t>
+  </si>
+  <si>
     <t>DEFECT_006</t>
   </si>
   <si>
+    <t>张006</t>
+  </si>
+  <si>
+    <t>REQ006</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect006.json</t>
+  </si>
+  <si>
     <t>DEFECT_007</t>
   </si>
   <si>
+    <t>张007</t>
+  </si>
+  <si>
+    <t>REQ007</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect007.json</t>
+  </si>
+  <si>
     <t>DEFECT_008</t>
   </si>
   <si>
+    <t>张008</t>
+  </si>
+  <si>
+    <t>REQ008</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect008.json</t>
+  </si>
+  <si>
     <t>DEFECT_009</t>
   </si>
   <si>
-    <t>张001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张002</t>
-  </si>
-  <si>
-    <t>REQ002</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect002.json</t>
-  </si>
-  <si>
-    <t>张003</t>
-  </si>
-  <si>
-    <t>REQ003</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect003.json</t>
-  </si>
-  <si>
-    <t>张004</t>
-  </si>
-  <si>
-    <t>REQ004</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect004.json</t>
-  </si>
-  <si>
-    <t>张005</t>
-  </si>
-  <si>
-    <t>REQ005</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect005.json</t>
-  </si>
-  <si>
-    <t>张006</t>
-  </si>
-  <si>
-    <t>REQ006</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect006.json</t>
-  </si>
-  <si>
-    <t>张007</t>
-  </si>
-  <si>
-    <t>REQ007</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect007.json</t>
-  </si>
-  <si>
-    <t>张008</t>
-  </si>
-  <si>
-    <t>REQ008</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect008.json</t>
-  </si>
-  <si>
     <t>张009</t>
   </si>
   <si>
@@ -920,15 +871,12 @@
   </si>
   <si>
     <t>节点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DELIVERABLE001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>节点2</t>
@@ -986,15 +934,12 @@
   </si>
   <si>
     <t>BIZ_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCHED_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BIZ_002</t>
@@ -1034,11 +979,9 @@
   </si>
   <si>
     <t>BIZ001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BIZ002</t>
@@ -1107,20 +1050,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1129,7 +1070,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1137,19 +1077,347 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1159,25 +1427,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,37 +1692,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1264,7 +1814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1297,26 +1847,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1349,23 +1882,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1536,44 +2052,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.55555555555556" customWidth="1"/>
+    <col min="3" max="4" width="9.55555555555556" customWidth="1"/>
+    <col min="5" max="5" width="16.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1590,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1607,7 +2123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1624,7 +2140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1641,7 +2157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1658,7 +2174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1675,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -1692,7 +2208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -1709,7 +2225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1726,7 +2242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1743,7 +2259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1761,37 +2277,38 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B5" sqref="B5:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.55555555555556" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="5" max="6" width="13.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.55555555555556" customWidth="1"/>
+    <col min="8" max="8" width="7.55555555555556" customWidth="1"/>
+    <col min="9" max="9" width="13.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="21.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="9.55555555555556" customWidth="1"/>
+    <col min="12" max="12" width="50.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>49</v>
@@ -1827,46 +2344,46 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="4">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5">
         <v>44712</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f>E3+100</f>
         <v>44812</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1874,12 +2391,12 @@
         <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4">
+        <v>61</v>
+      </c>
+      <c r="E4" s="5">
         <v>44713</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F17" si="0">E4+100</f>
         <v>44813</v>
       </c>
@@ -1890,13 +2407,13 @@
         <v>69</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>71</v>
@@ -1905,7 +2422,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1913,12 +2430,12 @@
         <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4">
+        <v>61</v>
+      </c>
+      <c r="E5" s="5">
         <v>44714</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>44814</v>
       </c>
@@ -1929,13 +2446,13 @@
         <v>74</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>76</v>
@@ -1944,7 +2461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1952,12 +2469,12 @@
         <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="4">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5">
         <v>44715</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>44815</v>
       </c>
@@ -1968,13 +2485,13 @@
         <v>79</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>81</v>
@@ -1983,7 +2500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1991,12 +2508,12 @@
         <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5">
         <v>44716</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>44816</v>
       </c>
@@ -2007,13 +2524,13 @@
         <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>86</v>
@@ -2022,7 +2539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -2030,12 +2547,12 @@
         <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4">
+        <v>61</v>
+      </c>
+      <c r="E8" s="5">
         <v>44717</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>44817</v>
       </c>
@@ -2046,13 +2563,13 @@
         <v>89</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>90</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>91</v>
@@ -2061,7 +2578,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -2069,12 +2586,12 @@
         <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="4">
+        <v>61</v>
+      </c>
+      <c r="E9" s="5">
         <v>44718</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>44818</v>
       </c>
@@ -2085,13 +2602,13 @@
         <v>94</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>95</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>96</v>
@@ -2100,7 +2617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -2108,12 +2625,12 @@
         <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="4">
+        <v>61</v>
+      </c>
+      <c r="E10" s="5">
         <v>44719</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>44819</v>
       </c>
@@ -2124,13 +2641,13 @@
         <v>99</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>101</v>
@@ -2139,7 +2656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -2147,12 +2664,12 @@
         <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4">
+        <v>61</v>
+      </c>
+      <c r="E11" s="5">
         <v>44720</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>44820</v>
       </c>
@@ -2163,13 +2680,13 @@
         <v>104</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>106</v>
@@ -2178,7 +2695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -2186,12 +2703,12 @@
         <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="4">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5">
         <v>44721</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>44821</v>
       </c>
@@ -2202,13 +2719,13 @@
         <v>109</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>111</v>
@@ -2217,7 +2734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -2225,12 +2742,12 @@
         <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="4">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5">
         <v>44722</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>44822</v>
       </c>
@@ -2241,13 +2758,13 @@
         <v>114</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>115</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>116</v>
@@ -2256,7 +2773,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -2264,12 +2781,12 @@
         <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5">
         <v>44723</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>44823</v>
       </c>
@@ -2280,13 +2797,13 @@
         <v>119</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>121</v>
@@ -2295,7 +2812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -2303,12 +2820,12 @@
         <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5">
         <v>44724</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>44824</v>
       </c>
@@ -2319,13 +2836,13 @@
         <v>124</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>125</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>126</v>
@@ -2334,7 +2851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -2342,12 +2859,12 @@
         <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5">
         <v>44725</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>44825</v>
       </c>
@@ -2358,13 +2875,13 @@
         <v>129</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>130</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>131</v>
@@ -2373,7 +2890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -2381,12 +2898,12 @@
         <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="4">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5">
         <v>44726</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>44826</v>
       </c>
@@ -2397,13 +2914,13 @@
         <v>134</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>136</v>
@@ -2413,49 +2930,53 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5555555555556" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2471,23 +2992,23 @@
       <c r="F4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>44712</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <f>G4+100</f>
         <v>44812</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>146</v>
@@ -2496,25 +3017,25 @@
         <v>147</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="4">
+        <v>151</v>
+      </c>
+      <c r="G5" s="5">
         <v>44713</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <f t="shared" ref="H5:H14" si="0">G5+100</f>
         <v>44813</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>146</v>
@@ -2523,25 +3044,25 @@
         <v>147</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="4">
+        <v>154</v>
+      </c>
+      <c r="G6" s="5">
         <v>44714</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>44814</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>146</v>
@@ -2550,25 +3071,25 @@
         <v>147</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="4">
+        <v>157</v>
+      </c>
+      <c r="G7" s="5">
         <v>44715</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>44815</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>146</v>
@@ -2577,25 +3098,25 @@
         <v>147</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="4">
+        <v>160</v>
+      </c>
+      <c r="G8" s="5">
         <v>44716</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>44816</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>146</v>
@@ -2604,25 +3125,25 @@
         <v>147</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="4">
+        <v>163</v>
+      </c>
+      <c r="G9" s="5">
         <v>44717</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>44817</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>146</v>
@@ -2631,25 +3152,25 @@
         <v>147</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="4">
+        <v>166</v>
+      </c>
+      <c r="G10" s="5">
         <v>44718</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>44818</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>146</v>
@@ -2658,25 +3179,25 @@
         <v>147</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="4">
+        <v>169</v>
+      </c>
+      <c r="G11" s="5">
         <v>44719</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>44819</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>146</v>
@@ -2685,25 +3206,25 @@
         <v>147</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="4">
+        <v>172</v>
+      </c>
+      <c r="G12" s="5">
         <v>44720</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>44820</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>146</v>
@@ -2712,25 +3233,25 @@
         <v>147</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="4">
+        <v>175</v>
+      </c>
+      <c r="G13" s="5">
         <v>44721</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>44821</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>146</v>
@@ -2739,64 +3260,65 @@
         <v>147</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="4">
+        <v>178</v>
+      </c>
+      <c r="G14" s="5">
         <v>44722</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>44822</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{F823B28D-711C-4FC4-AD78-6E1AE23DC6DE}"/>
-    <hyperlink ref="I5:I14" r:id="rId2" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req001.json" xr:uid="{CEA76FB1-312F-494F-9114-62AF8D5342EA}"/>
+    <hyperlink ref="I4" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req001.json"/>
+    <hyperlink ref="I5:I14" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/proj/req002.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB8B09A-FBA8-4F13-B204-6C5FFF7F37E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2804,16 +3326,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2821,16 +3343,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2838,16 +3360,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2855,16 +3377,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -2872,16 +3394,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -2889,16 +3411,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -2906,16 +3428,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -2923,16 +3445,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -2940,16 +3462,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -2957,50 +3479,51 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0C0062-62EA-42EB-AA2F-ED312ED44BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.6" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -3008,13 +3531,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -3025,10 +3548,10 @@
         <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -3036,13 +3559,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -3050,13 +3573,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -3064,13 +3587,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -3078,13 +3601,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -3092,13 +3615,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3106,88 +3629,89 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78553CE-0238-43CE-B59B-D8BB63366709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="8" width="9.55555555555556" customWidth="1"/>
+    <col min="9" max="9" width="13.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="9.55555555555556" customWidth="1"/>
+    <col min="11" max="11" width="7.55555555555556" customWidth="1"/>
+    <col min="12" max="12" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>225</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>226</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>228</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>229</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>230</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>231</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>232</v>
       </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="1">
+        <v>233</v>
+      </c>
+      <c r="D3" s="2">
         <v>44712</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>D3+10</f>
         <v>44722</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G3">
         <f>E3-D3</f>
@@ -3198,34 +3722,34 @@
         <v>DEFECT_001</v>
       </c>
       <c r="I3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1">
+        <v>238</v>
+      </c>
+      <c r="D4" s="2">
         <v>44713</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E13" si="0">D4+10</f>
         <v>44723</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="1">E4-D4</f>
@@ -3236,34 +3760,34 @@
         <v>DEFECT_002</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="1">
+        <v>242</v>
+      </c>
+      <c r="D5" s="2">
         <v>44714</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>44724</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -3274,34 +3798,34 @@
         <v>DEFECT_003</v>
       </c>
       <c r="I5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="1">
+        <v>246</v>
+      </c>
+      <c r="D6" s="2">
         <v>44715</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>44725</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -3312,34 +3836,34 @@
         <v>DEFECT_004</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="1">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2">
         <v>44716</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>44726</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -3350,34 +3874,34 @@
         <v>DEFECT_005</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1">
+        <v>254</v>
+      </c>
+      <c r="D8" s="2">
         <v>44717</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>44727</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -3388,34 +3912,34 @@
         <v>DEFECT_006</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="1">
+        <v>258</v>
+      </c>
+      <c r="D9" s="2">
         <v>44718</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>44728</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -3426,34 +3950,34 @@
         <v>DEFECT_007</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J9" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" s="1">
+        <v>262</v>
+      </c>
+      <c r="D10" s="2">
         <v>44719</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>44729</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -3464,34 +3988,34 @@
         <v>DEFECT_008</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K10">
         <v>8</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="1">
+        <v>266</v>
+      </c>
+      <c r="D11" s="2">
         <v>44720</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>44730</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -3502,34 +4026,34 @@
         <v>DEFECT_009</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K11">
         <v>9</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="1">
+        <v>270</v>
+      </c>
+      <c r="D12" s="2">
         <v>44721</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>44731</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -3540,34 +4064,34 @@
         <v>DEFECT_010</v>
       </c>
       <c r="I12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="1">
+        <v>274</v>
+      </c>
+      <c r="D13" s="2">
         <v>44722</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>44732</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
@@ -3578,359 +4102,368 @@
         <v>DEFECT_011</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J13" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K13">
         <v>11</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>278</v>
+      <c r="L13" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{CB6C7CDB-9CDD-4F22-A16D-8EB5E8ABAE35}"/>
-    <hyperlink ref="L4" r:id="rId2" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{B62BEBD5-740C-4970-8262-2DE2E8475C11}"/>
-    <hyperlink ref="L5" r:id="rId3" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{9A83A1CE-39B1-412C-9E84-EF7455BF1A52}"/>
-    <hyperlink ref="L6" r:id="rId4" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{02BF9CA0-698F-4A69-B239-72F155D9F2A0}"/>
-    <hyperlink ref="L7" r:id="rId5" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{83272E38-17F3-4217-BC42-E667996F478A}"/>
-    <hyperlink ref="L8" r:id="rId6" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{3A502E4C-C8D4-49CB-800E-391095A30412}"/>
-    <hyperlink ref="L9" r:id="rId7" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{FB8726A5-4677-4A81-8A7F-08688A4191CC}"/>
-    <hyperlink ref="L10" r:id="rId8" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{60E3FAEE-D833-4DB0-9504-F70C8717E797}"/>
-    <hyperlink ref="L11" r:id="rId9" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{FE83B016-FF0C-4FB9-847F-ABED4E084B01}"/>
-    <hyperlink ref="L12" r:id="rId10" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{B26F3A25-3BCD-48BD-92B5-BEB91CD01DE3}"/>
-    <hyperlink ref="L13" r:id="rId11" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json" xr:uid="{C438B766-5836-428B-B984-B12E7CCCEB2B}"/>
+    <hyperlink ref="L3" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect001.json"/>
+    <hyperlink ref="L4" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect002.json"/>
+    <hyperlink ref="L5" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect003.json"/>
+    <hyperlink ref="L6" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect004.json"/>
+    <hyperlink ref="L7" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect005.json"/>
+    <hyperlink ref="L8" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect006.json"/>
+    <hyperlink ref="L9" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect007.json"/>
+    <hyperlink ref="L10" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect008.json"/>
+    <hyperlink ref="L11" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect009.json"/>
+    <hyperlink ref="L12" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect010.json"/>
+    <hyperlink ref="L13" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/defect/defect011.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC6462B-D157-4426-B9C5-DBA0D3C38AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="49.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
         <v>279</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>280</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>281</v>
       </c>
-      <c r="F2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
         <v>283</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>44742</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
         <v>286</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>44743</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
         <v>289</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>44744</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" t="s">
         <v>292</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>44745</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
         <v>295</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>44746</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" t="s">
         <v>298</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>44747</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{653DBD4D-24D1-4DDD-8B74-BDF1BC7ADEBB}"/>
-    <hyperlink ref="E4" r:id="rId2" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json" xr:uid="{761BF902-2B49-41CC-86B4-2EE739D3C38B}"/>
-    <hyperlink ref="E5" r:id="rId3" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json" xr:uid="{0CA41420-6F3F-4ECA-8FEA-59536B7B5D89}"/>
-    <hyperlink ref="E6" r:id="rId4" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json" xr:uid="{2658D4C1-7E39-4B9D-8CDC-84818FA44C34}"/>
-    <hyperlink ref="E7" r:id="rId5" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json" xr:uid="{E4D3B71F-F8AC-4EB5-8E58-C0DB9939DE5C}"/>
-    <hyperlink ref="E8" r:id="rId6" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json" xr:uid="{63ADBEFF-8EAB-4D74-8488-0C1D7B9270F2}"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable001.json"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable002.json"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable003.json"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable004.json"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable005.json"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/deliverables/deliverable006.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4441BECB-2812-4B6D-8738-8793AC35D3F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="3.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
         <v>180</v>
       </c>
       <c r="E2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
         <v>302</v>
       </c>
-      <c r="F2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
         <v>304</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
         <v>305</v>
       </c>
-      <c r="E3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
         <v>307</v>
       </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
         <v>309</v>
       </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
         <v>311</v>
       </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
         <v>313</v>
       </c>
-      <c r="D7" t="s">
-        <v>314</v>
-      </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
         <v>315</v>
       </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
         <v>317</v>
       </c>
-      <c r="D9" t="s">
-        <v>318</v>
-      </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133C4721-1843-4D1E-A20C-F48A21236600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
         <v>180</v>
@@ -3939,193 +4472,193 @@
         <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
         <v>333</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
         <v>336</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
         <v>339</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>341</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{1E8270A9-9F21-4793-A26C-9399EE469D62}"/>
-    <hyperlink ref="F4" r:id="rId2" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{E33FBFFD-2AE4-427C-A6EF-5AAACFD88543}"/>
-    <hyperlink ref="F5" r:id="rId3" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{E285A771-D620-4AA7-BBBA-43EA87621F92}"/>
-    <hyperlink ref="F6" r:id="rId4" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{FCE81B66-F50D-4B2E-AB96-174304A868FC}"/>
-    <hyperlink ref="F7" r:id="rId5" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{60FC7A25-F934-4F24-83CC-470EB988167A}"/>
-    <hyperlink ref="F8" r:id="rId6" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{70A10E5F-C4DF-4806-B6A6-33F00338F084}"/>
-    <hyperlink ref="F9" r:id="rId7" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{29C984D8-161C-4FC1-8269-98AC59986B82}"/>
-    <hyperlink ref="F10" r:id="rId8" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{467CFFDC-9803-4F90-8D65-3211EA06794B}"/>
-    <hyperlink ref="F11" r:id="rId9" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{ED35C71F-9A37-4748-8879-3EFC96E56842}"/>
-    <hyperlink ref="F12" r:id="rId10" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json" xr:uid="{1FC4ABBD-4B1F-4C56-B223-04D2E86A2608}"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat001.json"/>
+    <hyperlink ref="F4" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat002.json"/>
+    <hyperlink ref="F5" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat003.json"/>
+    <hyperlink ref="F6" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat004.json"/>
+    <hyperlink ref="F7" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat005.json"/>
+    <hyperlink ref="F8" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat006.json"/>
+    <hyperlink ref="F9" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat007.json"/>
+    <hyperlink ref="F10" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat008.json"/>
+    <hyperlink ref="F11" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat009.json"/>
+    <hyperlink ref="F12" r:id="rId1" display="http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat010.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/java/gbench/sandbox/weihai/data/devops_data.xlsx
+++ b/src/test/java/gbench/sandbox/weihai/data/devops_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="系统" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="里程碑信息" sheetId="7" r:id="rId7"/>
     <sheet name="事项管理" sheetId="8" r:id="rId8"/>
     <sheet name="UAT提测申请" sheetId="9" r:id="rId9"/>
+    <sheet name="AUTH" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="349">
   <si>
     <t>ID</t>
   </si>
@@ -1045,6 +1046,30 @@
   </si>
   <si>
     <t>http://localhost:8089/kvps/media/file/download?key=E:/slicee/temp/kvps/data/devops/uats/uat010.json</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>CLIENT_SECRET</t>
+  </si>
+  <si>
+    <t>REDIRECT_URL</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>EXTEND</t>
   </si>
 </sst>
 </file>
@@ -1052,12 +1077,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,9 +1106,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1108,15 +1141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1129,57 +1156,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,6 +1181,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1215,11 +1234,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1244,7 +1262,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,109 +1406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,43 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,17 +1459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,8 +1471,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,6 +1488,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1497,8 +1524,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1506,11 +1535,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,162 +1556,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2283,6 +2301,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -4289,7 +4382,7 @@
   <sheetPr/>
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4449,7 +4542,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
